--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N2">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O2">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P2">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q2">
-        <v>34.34168744378756</v>
+        <v>26.76677948740623</v>
       </c>
       <c r="R2">
-        <v>309.075186994088</v>
+        <v>240.901015386656</v>
       </c>
       <c r="S2">
-        <v>0.001555082507988501</v>
+        <v>0.001017912742390394</v>
       </c>
       <c r="T2">
-        <v>0.001555082507988501</v>
+        <v>0.001017912742390394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.531081</v>
       </c>
       <c r="O3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q3">
-        <v>115.8901608297882</v>
+        <v>101.6303451905416</v>
       </c>
       <c r="R3">
-        <v>1043.011447468094</v>
+        <v>914.6731067148741</v>
       </c>
       <c r="S3">
-        <v>0.005247813237173341</v>
+        <v>0.003864896164727632</v>
       </c>
       <c r="T3">
-        <v>0.005247813237173342</v>
+        <v>0.003864896164727631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N4">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O4">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P4">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q4">
-        <v>301.8413921101024</v>
+        <v>369.4598464539367</v>
       </c>
       <c r="R4">
-        <v>2716.572528990922</v>
+        <v>3325.13861808543</v>
       </c>
       <c r="S4">
-        <v>0.01366817719209752</v>
+        <v>0.01405017311417705</v>
       </c>
       <c r="T4">
-        <v>0.01366817719209752</v>
+        <v>0.01405017311417704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N5">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q5">
-        <v>17.540789423954</v>
+        <v>14.83900933260889</v>
       </c>
       <c r="R5">
-        <v>157.867104815586</v>
+        <v>133.55108399348</v>
       </c>
       <c r="S5">
-        <v>0.0007942933746092045</v>
+        <v>0.0005643120679205875</v>
       </c>
       <c r="T5">
-        <v>0.0007942933746092046</v>
+        <v>0.0005643120679205872</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N6">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O6">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P6">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q6">
-        <v>1423.514546241671</v>
+        <v>1265.201109578098</v>
       </c>
       <c r="R6">
-        <v>12811.63091617504</v>
+        <v>11386.80998620288</v>
       </c>
       <c r="S6">
-        <v>0.06446050661753573</v>
+        <v>0.04811428030525493</v>
       </c>
       <c r="T6">
-        <v>0.06446050661753575</v>
+        <v>0.04811428030525492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8.531081</v>
       </c>
       <c r="O7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q7">
-        <v>4803.821302535725</v>
+        <v>4803.821302535724</v>
       </c>
       <c r="R7">
-        <v>43234.39172282153</v>
+        <v>43234.39172282152</v>
       </c>
       <c r="S7">
-        <v>0.2175297440262283</v>
+        <v>0.1826843202529546</v>
       </c>
       <c r="T7">
-        <v>0.2175297440262283</v>
+        <v>0.1826843202529546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N8">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O8">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P8">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q8">
-        <v>12511.77924875953</v>
+        <v>17463.47586933293</v>
       </c>
       <c r="R8">
-        <v>112606.0132388358</v>
+        <v>157171.2828239964</v>
       </c>
       <c r="S8">
-        <v>0.5665664823665856</v>
+        <v>0.6641177965464582</v>
       </c>
       <c r="T8">
-        <v>0.5665664823665857</v>
+        <v>0.6641177965464581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N9">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q9">
-        <v>727.09207835032</v>
+        <v>701.4041820567111</v>
       </c>
       <c r="R9">
-        <v>6543.828705152881</v>
+        <v>6312.637638510399</v>
       </c>
       <c r="S9">
-        <v>0.0329246538799342</v>
+        <v>0.02667367042857585</v>
       </c>
       <c r="T9">
-        <v>0.03292465387993421</v>
+        <v>0.02667367042857584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N10">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O10">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P10">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q10">
-        <v>71.97481673721157</v>
+        <v>70.133278113264</v>
       </c>
       <c r="R10">
-        <v>647.773350634904</v>
+        <v>631.199503019376</v>
       </c>
       <c r="S10">
-        <v>0.003259210215191781</v>
+        <v>0.002667095512580793</v>
       </c>
       <c r="T10">
-        <v>0.003259210215191781</v>
+        <v>0.002667095512580793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.531081</v>
       </c>
       <c r="O11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q11">
-        <v>242.8876886444003</v>
+        <v>266.287891202931</v>
       </c>
       <c r="R11">
-        <v>2185.989197799602</v>
+        <v>2396.591020826379</v>
       </c>
       <c r="S11">
-        <v>0.01099859745200123</v>
+        <v>0.01012665112466231</v>
       </c>
       <c r="T11">
-        <v>0.01099859745200122</v>
+        <v>0.01012665112466231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N12">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O12">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P12">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q12">
-        <v>632.6124456286585</v>
+        <v>968.044369149045</v>
       </c>
       <c r="R12">
-        <v>5693.512010657926</v>
+        <v>8712.399322341405</v>
       </c>
       <c r="S12">
-        <v>0.02864636602797216</v>
+        <v>0.03681371899894446</v>
       </c>
       <c r="T12">
-        <v>0.02864636602797216</v>
+        <v>0.03681371899894446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N13">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O13">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P13">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q13">
-        <v>36.762756817982</v>
+        <v>38.88059708262</v>
       </c>
       <c r="R13">
-        <v>330.864811361838</v>
+        <v>349.92537374358</v>
       </c>
       <c r="S13">
-        <v>0.001664714937687804</v>
+        <v>0.001478588607223618</v>
       </c>
       <c r="T13">
-        <v>0.001664714937687804</v>
+        <v>0.001478588607223618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N14">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O14">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P14">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q14">
-        <v>85.08058289449821</v>
+        <v>10.74469363283378</v>
       </c>
       <c r="R14">
-        <v>765.7252460504839</v>
+        <v>96.702242695504</v>
       </c>
       <c r="S14">
-        <v>0.003852673997026735</v>
+        <v>0.0004086095066867635</v>
       </c>
       <c r="T14">
-        <v>0.003852673997026736</v>
+        <v>0.0004086095066867634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.531081</v>
       </c>
       <c r="O15">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P15">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q15">
-        <v>287.1146751677518</v>
+        <v>40.79635069229345</v>
       </c>
       <c r="R15">
-        <v>2584.032076509767</v>
+        <v>367.167156230641</v>
       </c>
       <c r="S15">
-        <v>0.01300131246814843</v>
+        <v>0.001551442721461922</v>
       </c>
       <c r="T15">
-        <v>0.01300131246814843</v>
+        <v>0.001551442721461922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N16">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O16">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P16">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q16">
-        <v>747.8037188606467</v>
+        <v>148.3081990363883</v>
       </c>
       <c r="R16">
-        <v>6730.23346974582</v>
+        <v>1334.773791327495</v>
       </c>
       <c r="S16">
-        <v>0.03386253178480056</v>
+        <v>0.005640006324673442</v>
       </c>
       <c r="T16">
-        <v>0.03386253178480057</v>
+        <v>0.005640006324673441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N17">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O17">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P17">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q17">
-        <v>43.45682171449699</v>
+        <v>5.956660164091112</v>
       </c>
       <c r="R17">
-        <v>391.111395430473</v>
+        <v>53.60994147682</v>
       </c>
       <c r="S17">
-        <v>0.001967839915018918</v>
+        <v>0.0002265255813076209</v>
       </c>
       <c r="T17">
-        <v>0.001967839915018918</v>
+        <v>0.0002265255813076208</v>
       </c>
     </row>
   </sheetData>
